--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Égypte/Pandémie_de_Covid-19_en_Égypte.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Égypte/Pandémie_de_Covid-19_en_Égypte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_%C3%89gypte</t>
+          <t>Pandémie_de_Covid-19_en_Égypte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 en Égypte démarre officiellement le 14 février 2020. À la date du 14 janvier 2024, le bilan est de 24 613 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_%C3%89gypte</t>
+          <t>Pandémie_de_Covid-19_en_Égypte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 14 février, le ministère égyptien de la Santé annonce le premier cas dans le pays à l'aéroport international du Caire impliquant un ressortissant chinois.
 Le 6 mars, le ministère égyptien de la Santé et l'OMS confirment 12 nouveaux cas d'infection à coronavirus. Les personnes infectées font partie du personnel égyptien à bord du navire de croisière sur le Nil MS River Anuket, qui voyage d'Assouan à Louxor. Le 7 mars 2020, les autorités sanitaires annoncent que 45 personnes à bord ont été testées positives et que le navire a été placé en quarantaine sur un quai à Louxor.
-La grande fragilité de l'économie égyptienne inquiète certains experts quant à sa capacité à répondre à la crise[2]. 
-Les autorités mettent en place des mesures de restriction de la liberté d'information afin de couvrir les dégâts du coronavirus[3]. Le président Abdel Fattah al-Sissi ratifie le 7 mai une série d'amendements à la loi sur l'état d'urgence qui étend ses pouvoirs. L'organisation Human Rights Watch (HRW) dénonce l'adoption de ces amendements, les qualifiant de « couverture » pour la mise en place de « nouveaux pouvoirs répressifs ». « Le gouvernement du président Sissi utilise la pandémie pour étendre, et non réformer, la loi d'urgence abusive en Égypte », affirme l'organisation[4].
-Au 24 juin 2020, on compte en Égypte, 58 141 cas confirmés (soit 1 332 cas supplémentaires par rapport au 23 juin 2020), 2 365 décès. L'Égypte est le 49e pays le plus touché au monde en nombre de cas et 31e pays le plus touché au monde en nombre de décès[5].
-En novembre 2020, l'Égypte est un des plus touchés d'Afrique avec 115 183 cas et 6 621 décès sur une population de 104 124 440 habitants[6].
-Au 4 mai 2021, le nombre total de cas est de 230 713, le nombre de guérisons de 172 774 et le nombre de décès est de 13531[7].
+La grande fragilité de l'économie égyptienne inquiète certains experts quant à sa capacité à répondre à la crise. 
+Les autorités mettent en place des mesures de restriction de la liberté d'information afin de couvrir les dégâts du coronavirus. Le président Abdel Fattah al-Sissi ratifie le 7 mai une série d'amendements à la loi sur l'état d'urgence qui étend ses pouvoirs. L'organisation Human Rights Watch (HRW) dénonce l'adoption de ces amendements, les qualifiant de « couverture » pour la mise en place de « nouveaux pouvoirs répressifs ». « Le gouvernement du président Sissi utilise la pandémie pour étendre, et non réformer, la loi d'urgence abusive en Égypte », affirme l'organisation.
+Au 24 juin 2020, on compte en Égypte, 58 141 cas confirmés (soit 1 332 cas supplémentaires par rapport au 23 juin 2020), 2 365 décès. L'Égypte est le 49e pays le plus touché au monde en nombre de cas et 31e pays le plus touché au monde en nombre de décès.
+En novembre 2020, l'Égypte est un des plus touchés d'Afrique avec 115 183 cas et 6 621 décès sur une population de 104 124 440 habitants.
+Au 4 mai 2021, le nombre total de cas est de 230 713, le nombre de guérisons de 172 774 et le nombre de décès est de 13531.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_%C3%89gypte</t>
+          <t>Pandémie_de_Covid-19_en_Égypte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_%C3%89gypte</t>
+          <t>Pandémie_de_Covid-19_en_Égypte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_%C3%89gypte</t>
+          <t>Pandémie_de_Covid-19_en_Égypte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +619,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pandémie de Covid-19 en Afrique</t>
         </is>
